--- a/medicine/Handicap/Triphalangie/Triphalangie.xlsx
+++ b/medicine/Handicap/Triphalangie/Triphalangie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La triphalangie (du grec treis, « trois », et phalanx, « phalange »), est une malformation congénitale caractérisée par la présence d'une troisième phalange au pouce. La prévalence de cette forme de polydactylie préaxiale est estimée selon les études à un cas pour 25 000 naissances[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La triphalangie (du grec treis, « trois », et phalanx, « phalange »), est une malformation congénitale caractérisée par la présence d'une troisième phalange au pouce. La prévalence de cette forme de polydactylie préaxiale est estimée selon les études à un cas pour 25 000 naissances.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue deux types de triphalangie :
 Le pouce parait normal ou presque, et reste opposable aux autres doigts. La phalange en surnombre est petite et intercalée entre les deux autres. On peut remarquer alors une déviation de la dernière phalange.
@@ -547,9 +561,11 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La triphalangie est au carrefour de plusieurs mécanismes tératogènes, de duplication, de fusion et de délétion[2]. La phalange Delta intermédiaire de la triphalangie résulterait de la fusion d'un doigt à trois phalanges avec un pouce à deux phalanges.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La triphalangie est au carrefour de plusieurs mécanismes tératogènes, de duplication, de fusion et de délétion. La phalange Delta intermédiaire de la triphalangie résulterait de la fusion d'un doigt à trois phalanges avec un pouce à deux phalanges.
 Un pouce triphalangique opposable avec une phalange delta radiale résulterait de la duplication-fusion d'un pouce triphalangique radial et d'un pouce à deux phalanges.
 Le pouce triphalangique des fentes, en inclinaison radiale au contraire, résulterait de la fusion d'un pouce à deux phalanges avec l'index, qui disparaît dans cette fusion.
 Il existe de rares pouces triphalangiques normo-axés opposables résultant sans doute d'une duplication-fusion Wassel VII à deux rayons triphalangiques.
@@ -582,7 +598,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement varie en fonction de l'âge et de l'atteinte. Il est chirurgical et s'adresse à la triphalangie et la clinodactylie par phalange Delta, à la duplication ou à la délétion du pouce. Il consiste le plus souvent en la résection de la phalange surnuméraire et déplacement pour rétablir l'opposabilité.
 </t>
@@ -613,7 +631,9 @@
           <t>Syndromes associés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La triphalangie se rencontre dans :
 la maladie de Walbaum, qui associe à la triphalangie, retard mental, surdité, absence des phalanges distales des mains et des pieds ;
@@ -654,7 +674,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Encyclopédie Vulgaris Médical : Triphalangie
 Triphalangies du pouce</t>
